--- a/va_facility_data_2025-02-20/Captain Elwin Shopteese VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Captain%20Elwin%20Shopteese%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Captain Elwin Shopteese VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Captain%20Elwin%20Shopteese%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R971c208b5ebe44de8ac6a38d6df784c0"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd7d5c7ec8a0f45dd8690b9593cc2f5c8"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R079ed4f826e442d297620a138d069da5"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rce9bc3440bd440549d6f6cce7f1218fd"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rec4044719cbd4503ae73855b08ab914c"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R917219f219914189a691b410869e205f"/>
   </x:sheets>
 </x:workbook>
 </file>
